--- a/NPB3.3.1/NPB3.3-MPI/dstat_mpi.xlsx
+++ b/NPB3.3.1/NPB3.3-MPI/dstat_mpi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cpu" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     </textPr>
   </connection>
   <connection id="2" name="DISK_is.C.16" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-MPI/Results/Eth/intel/16/nodo-641/CSV/__disk_usage/DISK_is.C.16.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-MPI/Results/Eth/intel/16/nodo-641/CSV/__disk_usage/DISK_is.C.16.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -798,11 +798,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2085193872"/>
-        <c:axId val="-2089127680"/>
+        <c:axId val="2133081840"/>
+        <c:axId val="2099589600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2085193872"/>
+        <c:axId val="2133081840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089127680"/>
+        <c:crossAx val="2099589600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089127680"/>
+        <c:axId val="2099589600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +928,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -958,7 +958,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1003,7 +1003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085193872"/>
+        <c:crossAx val="2133081840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -1137,7 +1137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1361,11 +1360,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2146335520"/>
-        <c:axId val="-2085404720"/>
+        <c:axId val="2100393488"/>
+        <c:axId val="2031159984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146335520"/>
+        <c:axId val="2100393488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1397,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1459,7 +1457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085404720"/>
+        <c:crossAx val="2031159984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085404720"/>
+        <c:axId val="2031159984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1488,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1510,7 +1508,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1520,7 +1517,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1565,7 +1562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146335520"/>
+        <c:crossAx val="2100393488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -1903,11 +1900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2091975488"/>
-        <c:axId val="-2092809856"/>
+        <c:axId val="2102896112"/>
+        <c:axId val="2097097712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2091975488"/>
+        <c:axId val="2102896112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,7 +2003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092809856"/>
+        <c:crossAx val="2097097712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2014,7 +2011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092809856"/>
+        <c:axId val="2097097712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2034,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2055,7 +2052,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tamanho (k)</a:t>
+                  <a:t>Tamanho (Bytes)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2070,7 +2067,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2121,7 +2118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091975488"/>
+        <c:crossAx val="2102896112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20000.0"/>
@@ -4144,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4358,7 +4355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
